--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05039743596044066</v>
+        <v>0.1299122391364895</v>
       </c>
       <c r="D2">
-        <v>0.02351528390349999</v>
+        <v>0.04891241990706074</v>
       </c>
       <c r="E2">
-        <v>0.1061104673817463</v>
+        <v>0.1410107461270433</v>
       </c>
       <c r="F2">
-        <v>0.04028125780067615</v>
+        <v>0.08089768487822124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05039743596044066</v>
+        <v>0.1299122391364895</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5808600723161157</v>
+        <v>0.6787708002486448</v>
       </c>
       <c r="E3">
-        <v>0.4450958623173829</v>
+        <v>0.5068136697383347</v>
       </c>
       <c r="F3">
-        <v>0.8399828751853009</v>
+        <v>0.8651271143427492</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02351528390349999</v>
+        <v>0.04891241990706074</v>
       </c>
       <c r="C4">
-        <v>0.5808600723161157</v>
+        <v>0.6787708002486448</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2200817549297684</v>
+        <v>0.3285128584248436</v>
       </c>
       <c r="F4">
-        <v>0.461254548585756</v>
+        <v>0.4988649131676739</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1061104673817463</v>
+        <v>0.1410107461270433</v>
       </c>
       <c r="C5">
-        <v>0.4450958623173829</v>
+        <v>0.5068136697383347</v>
       </c>
       <c r="D5">
-        <v>0.2200817549297684</v>
+        <v>0.3285128584248436</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4542873855588248</v>
+        <v>0.5230314518366534</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04028125780067615</v>
+        <v>0.08089768487822124</v>
       </c>
       <c r="C6">
-        <v>0.8399828751853009</v>
+        <v>0.8651271143427492</v>
       </c>
       <c r="D6">
-        <v>0.461254548585756</v>
+        <v>0.4988649131676739</v>
       </c>
       <c r="E6">
-        <v>0.4542873855588248</v>
+        <v>0.5230314518366534</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.961517848348657</v>
+        <v>-1.609066406760991</v>
       </c>
       <c r="D2">
-        <v>-2.272226378242356</v>
+        <v>-2.156592795854996</v>
       </c>
       <c r="E2">
-        <v>-1.61897672608314</v>
+        <v>-1.560270264753369</v>
       </c>
       <c r="F2">
-        <v>-2.056440288355454</v>
+        <v>-1.881255762302034</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.961517848348657</v>
+        <v>1.609066406760991</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5525050802527008</v>
+        <v>-0.4229298805370965</v>
       </c>
       <c r="E3">
-        <v>0.764247848701903</v>
+        <v>0.681270547682354</v>
       </c>
       <c r="F3">
-        <v>0.2020250976522621</v>
+        <v>0.1730007348328235</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.272226378242356</v>
+        <v>2.156592795854996</v>
       </c>
       <c r="C4">
-        <v>0.5525050802527008</v>
+        <v>0.4229298805370965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.227915443687794</v>
+        <v>1.012426389404873</v>
       </c>
       <c r="F4">
-        <v>0.7373763593571684</v>
+        <v>0.6942826192114511</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.61897672608314</v>
+        <v>1.560270264753369</v>
       </c>
       <c r="C5">
-        <v>-0.764247848701903</v>
+        <v>-0.681270547682354</v>
       </c>
       <c r="D5">
-        <v>-1.227915443687794</v>
+        <v>-1.012426389404873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.7488961522295673</v>
+        <v>-0.6550852730162153</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.056440288355454</v>
+        <v>1.881255762302034</v>
       </c>
       <c r="C6">
-        <v>-0.2020250976522621</v>
+        <v>-0.1730007348328235</v>
       </c>
       <c r="D6">
-        <v>-0.7373763593571684</v>
+        <v>-0.6942826192114511</v>
       </c>
       <c r="E6">
-        <v>0.7488961522295673</v>
+        <v>0.6550852730162153</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1299122391364895</v>
+        <v>0.4472263162036807</v>
       </c>
       <c r="D2">
-        <v>0.04891241990706074</v>
+        <v>0.954992139921649</v>
       </c>
       <c r="E2">
-        <v>0.1410107461270433</v>
+        <v>0.7966267540883876</v>
       </c>
       <c r="F2">
-        <v>0.08089768487822124</v>
+        <v>0.3651355675359476</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1299122391364895</v>
+        <v>0.4472263162036807</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6787708002486448</v>
+        <v>0.4317803452932802</v>
       </c>
       <c r="E3">
-        <v>0.5068136697383347</v>
+        <v>0.3492372607906091</v>
       </c>
       <c r="F3">
-        <v>0.8651271143427492</v>
+        <v>0.6583298479185418</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04891241990706074</v>
+        <v>0.954992139921649</v>
       </c>
       <c r="C4">
-        <v>0.6787708002486448</v>
+        <v>0.4317803452932802</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3285128584248436</v>
+        <v>0.7308487928260692</v>
       </c>
       <c r="F4">
-        <v>0.4988649131676739</v>
+        <v>0.3395698114222645</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1410107461270433</v>
+        <v>0.7966267540883876</v>
       </c>
       <c r="C5">
-        <v>0.5068136697383347</v>
+        <v>0.3492372607906091</v>
       </c>
       <c r="D5">
-        <v>0.3285128584248436</v>
+        <v>0.7308487928260692</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5230314518366534</v>
+        <v>0.3068375961317946</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08089768487822124</v>
+        <v>0.3651355675359476</v>
       </c>
       <c r="C6">
-        <v>0.8651271143427492</v>
+        <v>0.6583298479185418</v>
       </c>
       <c r="D6">
-        <v>0.4988649131676739</v>
+        <v>0.3395698114222645</v>
       </c>
       <c r="E6">
-        <v>0.5230314518366534</v>
+        <v>0.3068375961317946</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.609066406760991</v>
+        <v>0.773901327424475</v>
       </c>
       <c r="D2">
-        <v>-2.156592795854996</v>
+        <v>0.05708582825009818</v>
       </c>
       <c r="E2">
-        <v>-1.560270264753369</v>
+        <v>-0.2608600146127348</v>
       </c>
       <c r="F2">
-        <v>-1.881255762302034</v>
+        <v>0.9247369560063619</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.609066406760991</v>
+        <v>-0.773901327424475</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.4229298805370965</v>
+        <v>-0.8008544410586651</v>
       </c>
       <c r="E3">
-        <v>0.681270547682354</v>
+        <v>-0.9564514616745921</v>
       </c>
       <c r="F3">
-        <v>0.1730007348328235</v>
+        <v>0.4482871367630202</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.156592795854996</v>
+        <v>-0.05708582825009818</v>
       </c>
       <c r="C4">
-        <v>0.4229298805370965</v>
+        <v>0.8008544410586651</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.012426389404873</v>
+        <v>-0.348403953799545</v>
       </c>
       <c r="F4">
-        <v>0.6942826192114511</v>
+        <v>0.9762174756880795</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.560270264753369</v>
+        <v>0.2608600146127348</v>
       </c>
       <c r="C5">
-        <v>-0.681270547682354</v>
+        <v>0.9564514616745921</v>
       </c>
       <c r="D5">
-        <v>-1.012426389404873</v>
+        <v>0.348403953799545</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6550852730162153</v>
+        <v>1.046178540831804</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.881255762302034</v>
+        <v>-0.9247369560063619</v>
       </c>
       <c r="C6">
-        <v>-0.1730007348328235</v>
+        <v>-0.4482871367630202</v>
       </c>
       <c r="D6">
-        <v>-0.6942826192114511</v>
+        <v>-0.9762174756880795</v>
       </c>
       <c r="E6">
-        <v>0.6550852730162153</v>
+        <v>-1.046178540831804</v>
       </c>
       <c r="F6">
         <v>0</v>
